--- a/docs/python测试开发课程实战—商业实战课程规划V1.3.xlsx
+++ b/docs/python测试开发课程实战—商业实战课程规划V1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Lux\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1EC5C06F-173B-404B-B63B-CC2388737493}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{48E99175-16E7-435C-A5C6-9F11ADA253AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="217">
   <si>
     <r>
       <rPr>
@@ -1210,6 +1210,272 @@
   <si>
     <t>在vs'code上配置git并和GitHub进行关联</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装并演示pytest测试框架的使用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>引起requests完成接口的请求，并在pytest的基础上完成接口测试用例的操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入检查点，对json格式的数据进行处理。为后文解析json文件做铺垫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装介绍allure测试报告。安装对于的工具和环境变量。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在pytest中引入allure，并生成简单的自动化测试报告</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对测试报告的各项内容，比如用例或者套件说明标题等内容进行定制。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装sheel命令，在自动化测试结束时，自动生成测试报告。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在json格式的用例中增加检查点的方法，并提取变量。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入复杂的测试流程场景，让用例之间的数据可以互相传输。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装数据库驱动，并通过python来操作数据库。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>将json格式的用例存储到数据库中。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成对数据库中的用例进行增删查改的函数的封装</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>将测试用例从脚本转换为json格式，并解析json文件。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装flask构建restful服务，对restful进行简单介绍</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>将上节课中的函数，改为通过接口操作</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过接口穿参的方式实现对用例的增删查改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整整个接口业务的功能，实现对自动化测试的启动</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新规划项目结构，按公共方法、架构，接口，资源等内容进行分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对测试报告进行管理，规范的命名，历史报告的储存等内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过实现接口，实现对测试报告的读取和删除。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入日志功能，实时打印项目的操作日志，讲解logger模块的基本使用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入角色表，考虑多人协作编写用例的方式</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增登陆和对其他接口的权限校验，提高平台的安全性</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增通过excle导入测试用例的功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写html页面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写js，使用ajax来实现前后端通信</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出未来可以继续优化改进的方向</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">通过本课程的学习可以掌握以下几点：
+1、掌握flaskWEB开发框架
+2、掌握restful服务设计方法以及接口开发
+3、掌握市面上流程的接口测试工具的原理和开发方法
+4、完整的自动化接口测试的解决方案
+5、数据分离，应用数据库做测试数据配置和管理
+</t>
+    <rPh sb="22" eb="23">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>you</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>zheng ti</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ren zhi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>jing sui</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>neng gou</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>qing song</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ying dui</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>wai</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>hai</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zhang wo</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>de</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zheng</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>de</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>zi dong hua</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>de</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>fang an</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>zhang wo</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>kuang jia</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>zhang wo</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ping tai</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>da jian</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ren yuan</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>chan chu</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>cheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1947,7 +2213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2174,84 +2440,372 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2273,18 +2827,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2297,286 +2839,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3718,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3734,139 +3997,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="146"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="120"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="148" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="153" t="s">
+      <c r="B5" s="127"/>
+      <c r="C5" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
+      <c r="A8" s="135" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -3886,10 +4149,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
+      <c r="A17" s="148">
         <v>1</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="134" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -3903,8 +4166,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
@@ -3916,8 +4179,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -3929,8 +4192,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="149"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
@@ -3942,445 +4205,585 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87">
+      <c r="A21" s="133">
         <v>2</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="134" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15">
+        <v>5</v>
+      </c>
       <c r="E21" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15">
+        <v>10</v>
+      </c>
       <c r="E22" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="15">
+        <v>5</v>
+      </c>
       <c r="E23" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105">
+      <c r="A24" s="150">
         <v>3</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="152" t="s">
         <v>132</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="15">
+        <v>5</v>
+      </c>
       <c r="E24" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="116"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="15">
+        <v>15</v>
+      </c>
       <c r="E25" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="202">
+      <c r="A26" s="158">
         <v>4</v>
       </c>
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="157" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="158" t="s">
+      <c r="D26" s="81">
+        <v>5</v>
+      </c>
+      <c r="E26" s="80" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="202"/>
-      <c r="B27" s="196"/>
-      <c r="C27" s="185" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="158" t="s">
+      <c r="D27" s="81">
+        <v>5</v>
+      </c>
+      <c r="E27" s="80" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="202"/>
-      <c r="B28" s="196"/>
-      <c r="C28" s="171" t="s">
+      <c r="A28" s="158"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="158" t="s">
+      <c r="D28" s="81">
+        <v>5</v>
+      </c>
+      <c r="E28" s="80" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="202"/>
-      <c r="B29" s="196"/>
-      <c r="C29" s="174" t="s">
+      <c r="A29" s="158"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="192" t="s">
+      <c r="D29" s="107">
+        <v>8</v>
+      </c>
+      <c r="E29" s="101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="202"/>
-      <c r="B30" s="196"/>
-      <c r="C30" s="174" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="192" t="s">
+      <c r="D30" s="107">
+        <v>8</v>
+      </c>
+      <c r="E30" s="101" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161">
+      <c r="A31" s="154">
         <v>5</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="204"/>
-      <c r="E31" s="162"/>
+      <c r="D31" s="107">
+        <v>10</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="207" t="s">
+      <c r="A32" s="154"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="163"/>
+      <c r="D32" s="108">
+        <v>10</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="161"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="207" t="s">
+      <c r="A33" s="154"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="165"/>
+      <c r="D33" s="93">
+        <v>10</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="156">
+      <c r="A34" s="162">
         <v>6</v>
       </c>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="206" t="s">
+      <c r="C34" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="166"/>
-      <c r="E34" s="167"/>
+      <c r="D34" s="86">
+        <v>15</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="156"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="168" t="s">
+      <c r="A35" s="162"/>
+      <c r="B35" s="166"/>
+      <c r="C35" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="169"/>
-      <c r="E35" s="163"/>
+      <c r="D35" s="89">
+        <v>15</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="170"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="171" t="s">
+      <c r="A36" s="163"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="163"/>
+      <c r="D36" s="91">
+        <v>15</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="173"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="197" t="s">
+      <c r="A37" s="164"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="175"/>
-      <c r="E37" s="198"/>
+      <c r="D37" s="93">
+        <v>10</v>
+      </c>
+      <c r="E37" s="103" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="105">
+      <c r="A38" s="150">
         <v>7</v>
       </c>
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="167" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="60">
+        <v>45</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="101"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="151"/>
+      <c r="B39" s="167"/>
       <c r="C39" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="23"/>
+      <c r="D39" s="60">
+        <v>45</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="114"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="167"/>
       <c r="C40" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="60">
+        <v>30</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101">
+      <c r="A41" s="151">
         <v>8</v>
       </c>
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="167" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="201" t="s">
+      <c r="C41" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="199"/>
-      <c r="E41" s="200"/>
+      <c r="D41" s="104">
+        <v>10</v>
+      </c>
+      <c r="E41" s="105" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="113"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="12">
+        <v>8</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="101"/>
-      <c r="B43" s="113"/>
+      <c r="A43" s="151"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="12">
+        <v>30</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="202">
+      <c r="A44" s="158">
         <v>9</v>
       </c>
-      <c r="B44" s="157" t="s">
+      <c r="B44" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="168" t="s">
+      <c r="C44" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="179"/>
+      <c r="D44" s="95">
+        <v>5</v>
+      </c>
+      <c r="E44" s="96" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="202"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="168" t="s">
+      <c r="A45" s="158"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="179"/>
+      <c r="D45" s="95">
+        <v>30</v>
+      </c>
+      <c r="E45" s="96" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="202"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="168" t="s">
+      <c r="A46" s="158"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="178"/>
-      <c r="E46" s="179"/>
+      <c r="D46" s="95">
+        <v>45</v>
+      </c>
+      <c r="E46" s="96" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="202"/>
-      <c r="B47" s="195"/>
-      <c r="C47" s="185" t="s">
+      <c r="A47" s="158"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="186"/>
-      <c r="E47" s="179"/>
+      <c r="D47" s="99">
+        <v>30</v>
+      </c>
+      <c r="E47" s="96" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="180">
+      <c r="A48" s="159">
         <v>10</v>
       </c>
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="158" t="s">
+      <c r="C48" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="159"/>
-      <c r="E48" s="181"/>
+      <c r="D48" s="81">
+        <v>10</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="158" t="s">
+      <c r="A49" s="159"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="159"/>
-      <c r="E49" s="181"/>
+      <c r="D49" s="81">
+        <v>10</v>
+      </c>
+      <c r="E49" s="97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="180"/>
-      <c r="B50" s="182"/>
-      <c r="C50" s="158" t="s">
+      <c r="A50" s="159"/>
+      <c r="B50" s="161"/>
+      <c r="C50" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="D50" s="159"/>
-      <c r="E50" s="181"/>
+      <c r="D50" s="81">
+        <v>30</v>
+      </c>
+      <c r="E50" s="97" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="173">
+      <c r="A51" s="164">
         <v>11</v>
       </c>
-      <c r="B51" s="183" t="s">
+      <c r="B51" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="158" t="s">
+      <c r="C51" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="178"/>
-      <c r="E51" s="181"/>
+      <c r="D51" s="95">
+        <v>30</v>
+      </c>
+      <c r="E51" s="97" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="180"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="158" t="s">
+      <c r="A52" s="159"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="D52" s="178"/>
-      <c r="E52" s="181"/>
+      <c r="D52" s="95">
+        <v>20</v>
+      </c>
+      <c r="E52" s="97" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="180"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="158" t="s">
+      <c r="A53" s="159"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="178"/>
-      <c r="E53" s="181"/>
+      <c r="D53" s="95">
+        <v>45</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="180"/>
-      <c r="B54" s="184"/>
-      <c r="C54" s="158" t="s">
+      <c r="A54" s="159"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="178"/>
-      <c r="E54" s="181"/>
+      <c r="D54" s="95">
+        <v>45</v>
+      </c>
+      <c r="E54" s="97" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="170">
+      <c r="A55" s="163">
         <v>12</v>
       </c>
-      <c r="B55" s="209" t="s">
+      <c r="B55" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="185" t="s">
+      <c r="C55" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="186"/>
-      <c r="E55" s="187"/>
+      <c r="D55" s="99">
+        <v>5</v>
+      </c>
+      <c r="E55" s="98" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="212"/>
-      <c r="B56" s="210"/>
-      <c r="C56" s="168" t="s">
+      <c r="A56" s="183"/>
+      <c r="B56" s="181"/>
+      <c r="C56" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="178"/>
-      <c r="E56" s="162"/>
+      <c r="D56" s="95">
+        <v>10</v>
+      </c>
+      <c r="E56" s="82" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="213"/>
-      <c r="B57" s="211"/>
-      <c r="C57" s="168" t="s">
+      <c r="A57" s="184"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="178"/>
-      <c r="E57" s="162"/>
+      <c r="D57" s="95">
+        <v>15</v>
+      </c>
+      <c r="E57" s="82" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="214">
+      <c r="A58" s="112">
         <v>13</v>
       </c>
-      <c r="B58" s="208" t="s">
+      <c r="B58" s="111" t="s">
         <v>175</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D58" s="178"/>
-      <c r="E58" s="162"/>
+      <c r="D58" s="95">
+        <v>20</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="188">
+      <c r="A59" s="174">
         <v>14</v>
       </c>
-      <c r="B59" s="177" t="s">
+      <c r="B59" s="176" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="158" t="s">
+      <c r="C59" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="178"/>
-      <c r="E59" s="189"/>
+      <c r="D59" s="95">
+        <v>20</v>
+      </c>
+      <c r="E59" s="80" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="190"/>
-      <c r="B60" s="157"/>
+      <c r="A60" s="175"/>
+      <c r="B60" s="155"/>
       <c r="C60" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="164"/>
-      <c r="E60" s="191"/>
+      <c r="D60" s="84">
+        <v>10</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="50" t="s">
-        <v>122</v>
+      <c r="B61" s="178"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="213" t="s">
+        <v>215</v>
       </c>
       <c r="E61" s="51"/>
     </row>
@@ -4413,77 +4816,77 @@
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="84"/>
-      <c r="B66" s="86"/>
+      <c r="A66" s="149"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="37"/>
       <c r="D66" s="29"/>
       <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="84"/>
-      <c r="B67" s="86"/>
+      <c r="A67" s="149"/>
+      <c r="B67" s="173"/>
       <c r="C67" s="37"/>
       <c r="D67" s="29"/>
       <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="84"/>
-      <c r="B68" s="86"/>
+      <c r="A68" s="149"/>
+      <c r="B68" s="173"/>
       <c r="C68" s="37"/>
       <c r="D68" s="29"/>
       <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="84"/>
-      <c r="B69" s="86"/>
+      <c r="A69" s="149"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="37"/>
       <c r="D69" s="29"/>
       <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
-      <c r="B70" s="86"/>
+      <c r="A70" s="149"/>
+      <c r="B70" s="173"/>
       <c r="C70" s="37"/>
       <c r="D70" s="29"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84"/>
-      <c r="B71" s="86"/>
+      <c r="A71" s="149"/>
+      <c r="B71" s="173"/>
       <c r="C71" s="37"/>
       <c r="D71" s="29"/>
       <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="84"/>
-      <c r="B72" s="86"/>
+      <c r="A72" s="149"/>
+      <c r="B72" s="173"/>
       <c r="C72" s="37"/>
       <c r="D72" s="29"/>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="84"/>
-      <c r="B73" s="86"/>
+      <c r="A73" s="149"/>
+      <c r="B73" s="173"/>
       <c r="C73" s="37"/>
       <c r="D73" s="29"/>
       <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="84"/>
-      <c r="B74" s="86"/>
+      <c r="A74" s="149"/>
+      <c r="B74" s="173"/>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
       <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="84"/>
+      <c r="A75" s="149"/>
       <c r="B75" s="39"/>
       <c r="C75" s="40"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="84"/>
+      <c r="A76" s="149"/>
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
       <c r="D76" s="39"/>
@@ -4763,81 +5166,81 @@
       <c r="E115" s="29"/>
     </row>
     <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="84"/>
-      <c r="B116" s="85"/>
+      <c r="A116" s="149"/>
+      <c r="B116" s="170"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
+      <c r="D116" s="149"/>
+      <c r="E116" s="149"/>
     </row>
     <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="84"/>
-      <c r="B117" s="84"/>
+      <c r="A117" s="149"/>
+      <c r="B117" s="149"/>
       <c r="C117" s="37"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
+      <c r="D117" s="149"/>
+      <c r="E117" s="149"/>
     </row>
     <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="84"/>
-      <c r="B118" s="85"/>
+      <c r="A118" s="149"/>
+      <c r="B118" s="170"/>
       <c r="C118" s="37"/>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
+      <c r="D118" s="149"/>
+      <c r="E118" s="149"/>
     </row>
     <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="84"/>
-      <c r="B119" s="84"/>
+      <c r="A119" s="149"/>
+      <c r="B119" s="149"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="84"/>
-      <c r="E119" s="84"/>
+      <c r="D119" s="149"/>
+      <c r="E119" s="149"/>
     </row>
     <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="84"/>
-      <c r="B120" s="84"/>
+      <c r="A120" s="149"/>
+      <c r="B120" s="149"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
+      <c r="D120" s="149"/>
+      <c r="E120" s="149"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="84"/>
-      <c r="B121" s="85"/>
+      <c r="A121" s="149"/>
+      <c r="B121" s="170"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="84"/>
-      <c r="B122" s="84"/>
+      <c r="A122" s="149"/>
+      <c r="B122" s="149"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="84"/>
-      <c r="E122" s="84"/>
+      <c r="D122" s="149"/>
+      <c r="E122" s="149"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="84"/>
-      <c r="B123" s="85"/>
+      <c r="A123" s="149"/>
+      <c r="B123" s="170"/>
       <c r="C123" s="37"/>
-      <c r="D123" s="84"/>
-      <c r="E123" s="84"/>
+      <c r="D123" s="149"/>
+      <c r="E123" s="149"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="84"/>
-      <c r="B124" s="84"/>
+      <c r="A124" s="149"/>
+      <c r="B124" s="149"/>
       <c r="C124" s="37"/>
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
+      <c r="D124" s="149"/>
+      <c r="E124" s="149"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="84"/>
-      <c r="B125" s="84"/>
+      <c r="A125" s="149"/>
+      <c r="B125" s="149"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="84"/>
-      <c r="E125" s="84"/>
+      <c r="D125" s="149"/>
+      <c r="E125" s="149"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="29"/>
       <c r="B126" s="43"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="84"/>
-      <c r="E126" s="84"/>
+      <c r="D126" s="149"/>
+      <c r="E126" s="149"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="46"/>
@@ -5779,6 +6182,2340 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D123:E125"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56719825-6127-4885-A498-D828B6970B8F}">
+  <dimension ref="A1:IV265"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67" style="1" customWidth="1"/>
+    <col min="6" max="256" width="15.125" style="1"/>
+    <col min="257" max="16384" width="15.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="116"/>
+    </row>
+    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="120"/>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+    </row>
+    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="122"/>
+      <c r="C4" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+    </row>
+    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="127"/>
+      <c r="C5" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+    </row>
+    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+    </row>
+    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+    </row>
+    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+    </row>
+    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="138"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+    </row>
+    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+    </row>
+    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="140" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+    </row>
+    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="144"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+    </row>
+    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="146"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="148">
+        <v>1</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="32">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="149"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="57">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="149"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="57">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="149"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="57">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="133">
+        <v>2</v>
+      </c>
+      <c r="B21" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="57">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="57">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="57">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="150">
+        <v>3</v>
+      </c>
+      <c r="B24" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="57">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="151"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="57">
+        <v>5</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="151"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="57">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="168"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="57">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="210">
+        <v>4</v>
+      </c>
+      <c r="B28" s="192" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="63">
+        <v>3</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="210"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="63">
+        <v>3</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="210"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="63">
+        <v>9</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="212">
+        <v>5</v>
+      </c>
+      <c r="B31" s="192" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="63">
+        <v>10</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="212"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="67">
+        <v>5</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="212"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="69">
+        <v>5</v>
+      </c>
+      <c r="E33" s="70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="133">
+        <v>6</v>
+      </c>
+      <c r="B34" s="202" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="60">
+        <v>10</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="133"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="54">
+        <v>20</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="201"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="11">
+        <v>15</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="150"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="21">
+        <v>25</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="150"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="21">
+        <v>15</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="205">
+        <v>7</v>
+      </c>
+      <c r="B39" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="58">
+        <v>15</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="205"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="18">
+        <v>15</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="151">
+        <v>8</v>
+      </c>
+      <c r="B41" s="206" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="12">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="151"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="12">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="151"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="12">
+        <v>20</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="193">
+        <v>9</v>
+      </c>
+      <c r="B44" s="194" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="73">
+        <v>5</v>
+      </c>
+      <c r="E44" s="74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="193"/>
+      <c r="B45" s="194"/>
+      <c r="C45" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="73">
+        <v>20</v>
+      </c>
+      <c r="E45" s="74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="193"/>
+      <c r="B46" s="194"/>
+      <c r="C46" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="73">
+        <v>30</v>
+      </c>
+      <c r="E46" s="74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="151"/>
+      <c r="B47" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="57">
+        <v>60</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="151"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="57">
+        <v>60</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="151"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="57">
+        <v>120</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="151"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="57">
+        <v>120</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="197">
+        <v>11</v>
+      </c>
+      <c r="B51" s="199" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="71">
+        <v>5</v>
+      </c>
+      <c r="E51" s="79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="198"/>
+      <c r="B52" s="200"/>
+      <c r="C52" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="71">
+        <v>30</v>
+      </c>
+      <c r="E52" s="79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="198"/>
+      <c r="B53" s="200"/>
+      <c r="C53" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="71">
+        <v>60</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="198"/>
+      <c r="B54" s="200"/>
+      <c r="C54" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="71">
+        <v>20</v>
+      </c>
+      <c r="E54" s="79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="60">
+        <v>12</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="25">
+        <v>20</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="133">
+        <v>13</v>
+      </c>
+      <c r="B56" s="185" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="12">
+        <v>20</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="133"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="12">
+        <v>20</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="186">
+        <v>14</v>
+      </c>
+      <c r="B58" s="185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="12">
+        <v>30</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="187"/>
+      <c r="B59" s="185"/>
+      <c r="C59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="12">
+        <v>20</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="188"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="12">
+        <v>60</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="189">
+        <v>15</v>
+      </c>
+      <c r="B61" s="191" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="71">
+        <v>20</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="190"/>
+      <c r="B62" s="191"/>
+      <c r="C62" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="76">
+        <v>30</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="190"/>
+      <c r="B63" s="192"/>
+      <c r="C63" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="69">
+        <v>80</v>
+      </c>
+      <c r="E63" s="77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="190"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="76">
+        <v>30</v>
+      </c>
+      <c r="E64" s="77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="48"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="52">
+        <f>SUM(D17:D64)</f>
+        <v>1111</v>
+      </c>
+      <c r="E65" s="35"/>
+    </row>
+    <row r="66" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="177" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="178"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="51"/>
+    </row>
+    <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="31"/>
+    </row>
+    <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="31"/>
+    </row>
+    <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="31"/>
+    </row>
+    <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="31"/>
+    </row>
+    <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="149"/>
+      <c r="B71" s="173"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="33"/>
+    </row>
+    <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="149"/>
+      <c r="B72" s="173"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="149"/>
+      <c r="B73" s="173"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="34"/>
+    </row>
+    <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="149"/>
+      <c r="B74" s="173"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="33"/>
+    </row>
+    <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="149"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="33"/>
+    </row>
+    <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="149"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="33"/>
+    </row>
+    <row r="77" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="149"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="33"/>
+    </row>
+    <row r="78" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="149"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="33"/>
+    </row>
+    <row r="79" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="149"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="33"/>
+    </row>
+    <row r="80" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="149"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+    </row>
+    <row r="81" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="149"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+    </row>
+    <row r="82" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="59"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+    </row>
+    <row r="83" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="59"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="84" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="59"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="59"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+    </row>
+    <row r="86" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="59"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+    </row>
+    <row r="87" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="59"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+    </row>
+    <row r="88" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="59"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+    </row>
+    <row r="89" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="59"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+    </row>
+    <row r="90" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="59"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="59"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+    </row>
+    <row r="92" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="59"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="59"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+    </row>
+    <row r="94" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="59"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+    </row>
+    <row r="95" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="59"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+    </row>
+    <row r="96" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="59"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+    </row>
+    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="59"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+    </row>
+    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="59"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+    </row>
+    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="59"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+    </row>
+    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="59"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+    </row>
+    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="59"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+    </row>
+    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="59"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+    </row>
+    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="59"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+    </row>
+    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="59"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+    </row>
+    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="61"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+    </row>
+    <row r="106" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="44"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="107" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="45"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="40"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+    </row>
+    <row r="108" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="59"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+    </row>
+    <row r="109" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="59"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+    </row>
+    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="59"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="59"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="59"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+    </row>
+    <row r="113" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="59"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+    </row>
+    <row r="114" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="59"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+    </row>
+    <row r="115" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="59"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="40"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+    </row>
+    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="59"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+    </row>
+    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="59"/>
+      <c r="B117" s="59"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="59"/>
+      <c r="E117" s="59"/>
+    </row>
+    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="59"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
+    </row>
+    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="59"/>
+    </row>
+    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="59"/>
+      <c r="B120" s="59"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="59"/>
+      <c r="E120" s="59"/>
+    </row>
+    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="149"/>
+      <c r="B121" s="170"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+    </row>
+    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="149"/>
+      <c r="B122" s="149"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="149"/>
+      <c r="E122" s="149"/>
+    </row>
+    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="149"/>
+      <c r="B123" s="170"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="149"/>
+      <c r="E123" s="149"/>
+    </row>
+    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="149"/>
+      <c r="B124" s="149"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="149"/>
+      <c r="E124" s="149"/>
+    </row>
+    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="149"/>
+      <c r="B125" s="149"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="149"/>
+      <c r="E125" s="149"/>
+    </row>
+    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="149"/>
+      <c r="B126" s="170"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="149"/>
+      <c r="E126" s="149"/>
+    </row>
+    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="149"/>
+      <c r="B127" s="149"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="149"/>
+      <c r="E127" s="149"/>
+    </row>
+    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="149"/>
+      <c r="B128" s="170"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="149"/>
+      <c r="E128" s="149"/>
+    </row>
+    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="149"/>
+      <c r="B129" s="149"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="149"/>
+      <c r="E129" s="149"/>
+    </row>
+    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="149"/>
+      <c r="B130" s="149"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="149"/>
+      <c r="E130" s="149"/>
+    </row>
+    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="59"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="149"/>
+      <c r="E131" s="149"/>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="46"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="40"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="39"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="40"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="40"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="39"/>
+      <c r="B155" s="39"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="39"/>
+      <c r="B156" s="39"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="39"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="39"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="39"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="39"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="39"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="39"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="39"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
+      <c r="C165" s="40"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="39"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="39"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="39"/>
+      <c r="E173" s="39"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="39"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="40"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="40"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="39"/>
+      <c r="B180" s="39"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="39"/>
+      <c r="E181" s="39"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="39"/>
+      <c r="E182" s="39"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="39"/>
+      <c r="E183" s="39"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="39"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
+      <c r="C185" s="40"/>
+      <c r="D185" s="39"/>
+      <c r="E185" s="39"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="39"/>
+      <c r="E186" s="39"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="40"/>
+      <c r="D187" s="39"/>
+      <c r="E187" s="39"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="40"/>
+      <c r="D188" s="39"/>
+      <c r="E188" s="39"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="40"/>
+      <c r="D189" s="39"/>
+      <c r="E189" s="39"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="39"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="40"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="39"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="40"/>
+      <c r="D193" s="39"/>
+      <c r="E193" s="39"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="39"/>
+      <c r="E194" s="39"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
+      <c r="C195" s="40"/>
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
+      <c r="C197" s="40"/>
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="39"/>
+      <c r="E198" s="39"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="39"/>
+      <c r="E199" s="39"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
+      <c r="C201" s="40"/>
+      <c r="D201" s="39"/>
+      <c r="E201" s="39"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
+      <c r="C202" s="40"/>
+      <c r="D202" s="39"/>
+      <c r="E202" s="39"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
+      <c r="C203" s="40"/>
+      <c r="D203" s="39"/>
+      <c r="E203" s="39"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
+      <c r="C205" s="40"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="39"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
+      <c r="C206" s="40"/>
+      <c r="D206" s="39"/>
+      <c r="E206" s="39"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="39"/>
+      <c r="E207" s="39"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="39"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
+      <c r="C209" s="40"/>
+      <c r="D209" s="39"/>
+      <c r="E209" s="39"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
+      <c r="C210" s="40"/>
+      <c r="D210" s="39"/>
+      <c r="E210" s="39"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
+      <c r="C211" s="40"/>
+      <c r="D211" s="39"/>
+      <c r="E211" s="39"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
+      <c r="C212" s="40"/>
+      <c r="D212" s="39"/>
+      <c r="E212" s="39"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
+      <c r="C213" s="40"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="39"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
+      <c r="C214" s="40"/>
+      <c r="D214" s="39"/>
+      <c r="E214" s="39"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
+      <c r="C215" s="40"/>
+      <c r="D215" s="39"/>
+      <c r="E215" s="39"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
+      <c r="C216" s="40"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="39"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="40"/>
+      <c r="D217" s="39"/>
+      <c r="E217" s="39"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="39"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="40"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="39"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
+      <c r="C220" s="40"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="39"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="40"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="39"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="39"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="40"/>
+      <c r="D222" s="39"/>
+      <c r="E222" s="39"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="39"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="40"/>
+      <c r="D223" s="39"/>
+      <c r="E223" s="39"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="40"/>
+      <c r="D224" s="39"/>
+      <c r="E224" s="39"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
+      <c r="C225" s="40"/>
+      <c r="D225" s="39"/>
+      <c r="E225" s="39"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="39"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="40"/>
+      <c r="D226" s="39"/>
+      <c r="E226" s="39"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="39"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="40"/>
+      <c r="D227" s="39"/>
+      <c r="E227" s="39"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="39"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="40"/>
+      <c r="D228" s="39"/>
+      <c r="E228" s="39"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="39"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="40"/>
+      <c r="D229" s="39"/>
+      <c r="E229" s="39"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="39"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="40"/>
+      <c r="D230" s="39"/>
+      <c r="E230" s="39"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="39"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="40"/>
+      <c r="D231" s="39"/>
+      <c r="E231" s="39"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="39"/>
+      <c r="B232" s="39"/>
+      <c r="C232" s="40"/>
+      <c r="D232" s="39"/>
+      <c r="E232" s="39"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="39"/>
+      <c r="B233" s="39"/>
+      <c r="C233" s="40"/>
+      <c r="D233" s="39"/>
+      <c r="E233" s="39"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="39"/>
+      <c r="E234" s="39"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
+      <c r="C235" s="40"/>
+      <c r="D235" s="39"/>
+      <c r="E235" s="39"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
+      <c r="C236" s="40"/>
+      <c r="D236" s="39"/>
+      <c r="E236" s="39"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
+      <c r="C237" s="40"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="39"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
+      <c r="C238" s="40"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="39"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
+      <c r="C239" s="40"/>
+      <c r="D239" s="39"/>
+      <c r="E239" s="39"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
+      <c r="C240" s="40"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="39"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
+      <c r="C241" s="40"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="39"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
+      <c r="C242" s="40"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="39"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
+      <c r="C243" s="40"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="39"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
+      <c r="C244" s="40"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="39"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
+      <c r="C245" s="40"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="39"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
+      <c r="C246" s="40"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="39"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
+      <c r="C247" s="40"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="39"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
+      <c r="C248" s="40"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="39"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
+      <c r="C249" s="40"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="39"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
+      <c r="C250" s="40"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="39"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
+      <c r="C251" s="40"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="39"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
+      <c r="C252" s="40"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="39"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
+      <c r="C253" s="40"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="39"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="40"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="39"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
+      <c r="C255" s="40"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="39"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
+      <c r="C256" s="40"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="39"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
+      <c r="C257" s="40"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="39"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
+      <c r="C258" s="40"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="39"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
+      <c r="C259" s="40"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="39"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="40"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="39"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="40"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="39"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
+      <c r="C262" s="40"/>
+      <c r="D262" s="39"/>
+      <c r="E262" s="39"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
+      <c r="C263" s="40"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="39"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
+      <c r="C264" s="40"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="39"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
+      <c r="C265" s="40"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:B4"/>
@@ -5798,2321 +8535,36 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A121:A122"/>
     <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D123:E125"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56719825-6127-4885-A498-D828B6970B8F}">
-  <dimension ref="A1:IV265"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67" style="1" customWidth="1"/>
-    <col min="6" max="256" width="15.125" style="1"/>
-    <col min="257" max="16384" width="15.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="142"/>
-    </row>
-    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="146"/>
-    </row>
-    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-    </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="147" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="148" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-    </row>
-    <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="153" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-    </row>
-    <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-    </row>
-    <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-    </row>
-    <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-    </row>
-    <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-    </row>
-    <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-    </row>
-    <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-    </row>
-    <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-    </row>
-    <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138">
-        <v>1</v>
-      </c>
-      <c r="B17" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="32">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="57">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="57">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="57">
-        <v>2</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87">
-        <v>2</v>
-      </c>
-      <c r="B21" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="57">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="57">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="57">
-        <v>20</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105">
-        <v>3</v>
-      </c>
-      <c r="B24" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="57">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="57">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="57">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="57">
-        <v>5</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118">
-        <v>4</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="63">
-        <v>3</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="63">
-        <v>3</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="63">
-        <v>9</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120">
-        <v>5</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="63">
-        <v>10</v>
-      </c>
-      <c r="E31" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="67">
-        <v>5</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="69">
-        <v>5</v>
-      </c>
-      <c r="E33" s="70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87">
-        <v>6</v>
-      </c>
-      <c r="B34" s="106" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="60">
-        <v>10</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="54">
-        <v>20</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="11">
-        <v>15</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="105"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="21">
-        <v>25</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="21">
-        <v>15</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="109">
-        <v>7</v>
-      </c>
-      <c r="B39" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="58">
-        <v>15</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="18">
-        <v>15</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="101">
-        <v>8</v>
-      </c>
-      <c r="B41" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="12">
-        <v>5</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="101"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="12">
-        <v>9</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="101"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="12">
-        <v>20</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99">
-        <v>9</v>
-      </c>
-      <c r="B44" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="73">
-        <v>5</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="73">
-        <v>20</v>
-      </c>
-      <c r="E45" s="74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="73">
-        <v>30</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101"/>
-      <c r="B47" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="57">
-        <v>60</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="101"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="57">
-        <v>60</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="101"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="57">
-        <v>120</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="57">
-        <v>120</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82">
-        <v>11</v>
-      </c>
-      <c r="B51" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="71">
-        <v>5</v>
-      </c>
-      <c r="E51" s="79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="71">
-        <v>30</v>
-      </c>
-      <c r="E52" s="79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="71">
-        <v>60</v>
-      </c>
-      <c r="E53" s="79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="83"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="71">
-        <v>20</v>
-      </c>
-      <c r="E54" s="79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60">
-        <v>12</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="25">
-        <v>20</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="87">
-        <v>13</v>
-      </c>
-      <c r="B56" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="12">
-        <v>20</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="12">
-        <v>20</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89">
-        <v>14</v>
-      </c>
-      <c r="B58" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="12">
-        <v>30</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="90"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="12">
-        <v>20</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="91"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="12">
-        <v>60</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="92">
-        <v>15</v>
-      </c>
-      <c r="B61" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="71">
-        <v>20</v>
-      </c>
-      <c r="E61" s="75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="93"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="76">
-        <v>30</v>
-      </c>
-      <c r="E62" s="77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="93"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="69">
-        <v>80</v>
-      </c>
-      <c r="E63" s="77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="93"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="76">
-        <v>30</v>
-      </c>
-      <c r="E64" s="77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="48"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="52">
-        <f>SUM(D17:D64)</f>
-        <v>1111</v>
-      </c>
-      <c r="E65" s="35"/>
-    </row>
-    <row r="66" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="51"/>
-    </row>
-    <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="31"/>
-    </row>
-    <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="31"/>
-    </row>
-    <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="31"/>
-    </row>
-    <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="31"/>
-    </row>
-    <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="33"/>
-    </row>
-    <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="84"/>
-      <c r="B72" s="86"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="84"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="34"/>
-    </row>
-    <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="84"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="33"/>
-    </row>
-    <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="84"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="33"/>
-    </row>
-    <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="84"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="33"/>
-    </row>
-    <row r="77" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="84"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="33"/>
-    </row>
-    <row r="78" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="33"/>
-    </row>
-    <row r="79" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="84"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="33"/>
-    </row>
-    <row r="80" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="84"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-    </row>
-    <row r="81" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="84"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-    </row>
-    <row r="82" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="59"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-    </row>
-    <row r="83" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="59"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-    </row>
-    <row r="84" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-    </row>
-    <row r="85" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
-    </row>
-    <row r="86" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-    </row>
-    <row r="87" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-    </row>
-    <row r="88" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="59"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-    </row>
-    <row r="89" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="59"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-    </row>
-    <row r="90" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="59"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-    </row>
-    <row r="91" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="59"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-    </row>
-    <row r="92" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="59"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="59"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-    </row>
-    <row r="94" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="59"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-    </row>
-    <row r="95" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="59"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-    </row>
-    <row r="96" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="59"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-    </row>
-    <row r="97" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="59"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-    </row>
-    <row r="98" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="59"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-    </row>
-    <row r="99" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="59"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-    </row>
-    <row r="100" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="59"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-    </row>
-    <row r="101" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="59"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-    </row>
-    <row r="102" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="59"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-    </row>
-    <row r="103" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="59"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="40"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-    </row>
-    <row r="104" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="59"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-    </row>
-    <row r="105" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="40"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-    </row>
-    <row r="106" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-    </row>
-    <row r="107" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="45"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="40"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-    </row>
-    <row r="108" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="59"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="40"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-    </row>
-    <row r="109" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="59"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-    </row>
-    <row r="110" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="59"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-    </row>
-    <row r="111" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="59"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-    </row>
-    <row r="112" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="59"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-    </row>
-    <row r="113" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="59"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-    </row>
-    <row r="114" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="59"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="40"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-    </row>
-    <row r="115" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="59"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-    </row>
-    <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="59"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-    </row>
-    <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="59"/>
-      <c r="B117" s="59"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="59"/>
-      <c r="E117" s="59"/>
-    </row>
-    <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="59"/>
-      <c r="B118" s="59"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-    </row>
-    <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="59"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="59"/>
-      <c r="E119" s="59"/>
-    </row>
-    <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="59"/>
-      <c r="B120" s="59"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="59"/>
-      <c r="E120" s="59"/>
-    </row>
-    <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="84"/>
-      <c r="B121" s="85"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="84"/>
-      <c r="E121" s="84"/>
-    </row>
-    <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="84"/>
-      <c r="B122" s="84"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="84"/>
-      <c r="E122" s="84"/>
-    </row>
-    <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="84"/>
-      <c r="B123" s="85"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="84"/>
-      <c r="E123" s="84"/>
-    </row>
-    <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="84"/>
-      <c r="B124" s="84"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="84"/>
-      <c r="E124" s="84"/>
-    </row>
-    <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="84"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="84"/>
-      <c r="E125" s="84"/>
-    </row>
-    <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="84"/>
-      <c r="B126" s="85"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="84"/>
-      <c r="E126" s="84"/>
-    </row>
-    <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="84"/>
-      <c r="B127" s="84"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="84"/>
-      <c r="E127" s="84"/>
-    </row>
-    <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="84"/>
-      <c r="B128" s="85"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="84"/>
-      <c r="E128" s="84"/>
-    </row>
-    <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="84"/>
-      <c r="B129" s="84"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="84"/>
-      <c r="E129" s="84"/>
-    </row>
-    <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="84"/>
-      <c r="B130" s="84"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="84"/>
-      <c r="E130" s="84"/>
-    </row>
-    <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="59"/>
-      <c r="B131" s="61"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="84"/>
-      <c r="E131" s="84"/>
-    </row>
-    <row r="132" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="46"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="40"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="40"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="39"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="39"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="39"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="40"/>
-      <c r="D140" s="39"/>
-      <c r="E140" s="39"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="40"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="39"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="39"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="40"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="40"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="39"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="39"/>
-      <c r="E150" s="39"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="39"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="39"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="39"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="40"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="39"/>
-      <c r="B157" s="39"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="39"/>
-      <c r="B158" s="39"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="39"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
-      <c r="C160" s="40"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="39"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="39"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
-      <c r="C164" s="40"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
-      <c r="C165" s="40"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="39"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="39"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="40"/>
-      <c r="D173" s="39"/>
-      <c r="E173" s="39"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
-      <c r="C174" s="40"/>
-      <c r="D174" s="39"/>
-      <c r="E174" s="39"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
-      <c r="C175" s="40"/>
-      <c r="D175" s="39"/>
-      <c r="E175" s="39"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
-      <c r="C176" s="40"/>
-      <c r="D176" s="39"/>
-      <c r="E176" s="39"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
-      <c r="B177" s="39"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
-      <c r="B178" s="39"/>
-      <c r="C178" s="40"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="39"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="40"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
-      <c r="B180" s="39"/>
-      <c r="C180" s="40"/>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
-      <c r="C181" s="40"/>
-      <c r="D181" s="39"/>
-      <c r="E181" s="39"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
-      <c r="C182" s="40"/>
-      <c r="D182" s="39"/>
-      <c r="E182" s="39"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="40"/>
-      <c r="D183" s="39"/>
-      <c r="E183" s="39"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="40"/>
-      <c r="D184" s="39"/>
-      <c r="E184" s="39"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="39"/>
-      <c r="B185" s="39"/>
-      <c r="C185" s="40"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="39"/>
-      <c r="B186" s="39"/>
-      <c r="C186" s="40"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
-      <c r="C187" s="40"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="40"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
-      <c r="C189" s="40"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
-      <c r="C190" s="40"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
-      <c r="C191" s="40"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
-      <c r="C192" s="40"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="40"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="39"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="40"/>
-      <c r="D195" s="39"/>
-      <c r="E195" s="39"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
-      <c r="C196" s="40"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="40"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
-      <c r="C198" s="40"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
-      <c r="C199" s="40"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="39"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
-      <c r="C200" s="40"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="40"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
-      <c r="C202" s="40"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
-      <c r="C203" s="40"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
-      <c r="C204" s="40"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="40"/>
-      <c r="D205" s="39"/>
-      <c r="E205" s="39"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
-      <c r="C206" s="40"/>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
-      <c r="C207" s="40"/>
-      <c r="D207" s="39"/>
-      <c r="E207" s="39"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="40"/>
-      <c r="D208" s="39"/>
-      <c r="E208" s="39"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
-      <c r="C209" s="40"/>
-      <c r="D209" s="39"/>
-      <c r="E209" s="39"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
-      <c r="C210" s="40"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="39"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="40"/>
-      <c r="D211" s="39"/>
-      <c r="E211" s="39"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
-      <c r="C212" s="40"/>
-      <c r="D212" s="39"/>
-      <c r="E212" s="39"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
-      <c r="C213" s="40"/>
-      <c r="D213" s="39"/>
-      <c r="E213" s="39"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
-      <c r="C214" s="40"/>
-      <c r="D214" s="39"/>
-      <c r="E214" s="39"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
-      <c r="C215" s="40"/>
-      <c r="D215" s="39"/>
-      <c r="E215" s="39"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="40"/>
-      <c r="D216" s="39"/>
-      <c r="E216" s="39"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="40"/>
-      <c r="D217" s="39"/>
-      <c r="E217" s="39"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
-      <c r="C218" s="40"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="39"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
-      <c r="C219" s="40"/>
-      <c r="D219" s="39"/>
-      <c r="E219" s="39"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="40"/>
-      <c r="D220" s="39"/>
-      <c r="E220" s="39"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
-      <c r="C221" s="40"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="39"/>
-      <c r="B222" s="39"/>
-      <c r="C222" s="40"/>
-      <c r="D222" s="39"/>
-      <c r="E222" s="39"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="39"/>
-      <c r="B223" s="39"/>
-      <c r="C223" s="40"/>
-      <c r="D223" s="39"/>
-      <c r="E223" s="39"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
-      <c r="C224" s="40"/>
-      <c r="D224" s="39"/>
-      <c r="E224" s="39"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
-      <c r="C225" s="40"/>
-      <c r="D225" s="39"/>
-      <c r="E225" s="39"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="39"/>
-      <c r="B226" s="39"/>
-      <c r="C226" s="40"/>
-      <c r="D226" s="39"/>
-      <c r="E226" s="39"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="40"/>
-      <c r="D227" s="39"/>
-      <c r="E227" s="39"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="40"/>
-      <c r="D228" s="39"/>
-      <c r="E228" s="39"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="39"/>
-      <c r="B229" s="39"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="39"/>
-      <c r="E229" s="39"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="39"/>
-      <c r="B230" s="39"/>
-      <c r="C230" s="40"/>
-      <c r="D230" s="39"/>
-      <c r="E230" s="39"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="39"/>
-      <c r="B231" s="39"/>
-      <c r="C231" s="40"/>
-      <c r="D231" s="39"/>
-      <c r="E231" s="39"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="39"/>
-      <c r="B232" s="39"/>
-      <c r="C232" s="40"/>
-      <c r="D232" s="39"/>
-      <c r="E232" s="39"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="39"/>
-      <c r="B233" s="39"/>
-      <c r="C233" s="40"/>
-      <c r="D233" s="39"/>
-      <c r="E233" s="39"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
-      <c r="C234" s="40"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="39"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
-      <c r="C235" s="40"/>
-      <c r="D235" s="39"/>
-      <c r="E235" s="39"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="39"/>
-      <c r="B236" s="39"/>
-      <c r="C236" s="40"/>
-      <c r="D236" s="39"/>
-      <c r="E236" s="39"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="39"/>
-      <c r="B237" s="39"/>
-      <c r="C237" s="40"/>
-      <c r="D237" s="39"/>
-      <c r="E237" s="39"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
-      <c r="C238" s="40"/>
-      <c r="D238" s="39"/>
-      <c r="E238" s="39"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
-      <c r="C239" s="40"/>
-      <c r="D239" s="39"/>
-      <c r="E239" s="39"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
-      <c r="C240" s="40"/>
-      <c r="D240" s="39"/>
-      <c r="E240" s="39"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="39"/>
-      <c r="B241" s="39"/>
-      <c r="C241" s="40"/>
-      <c r="D241" s="39"/>
-      <c r="E241" s="39"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="39"/>
-      <c r="B242" s="39"/>
-      <c r="C242" s="40"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="39"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="39"/>
-      <c r="B243" s="39"/>
-      <c r="C243" s="40"/>
-      <c r="D243" s="39"/>
-      <c r="E243" s="39"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="39"/>
-      <c r="B244" s="39"/>
-      <c r="C244" s="40"/>
-      <c r="D244" s="39"/>
-      <c r="E244" s="39"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
-      <c r="C245" s="40"/>
-      <c r="D245" s="39"/>
-      <c r="E245" s="39"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="39"/>
-      <c r="B246" s="39"/>
-      <c r="C246" s="40"/>
-      <c r="D246" s="39"/>
-      <c r="E246" s="39"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="39"/>
-      <c r="B247" s="39"/>
-      <c r="C247" s="40"/>
-      <c r="D247" s="39"/>
-      <c r="E247" s="39"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="39"/>
-      <c r="B248" s="39"/>
-      <c r="C248" s="40"/>
-      <c r="D248" s="39"/>
-      <c r="E248" s="39"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
-      <c r="C249" s="40"/>
-      <c r="D249" s="39"/>
-      <c r="E249" s="39"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
-      <c r="C250" s="40"/>
-      <c r="D250" s="39"/>
-      <c r="E250" s="39"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="39"/>
-      <c r="B251" s="39"/>
-      <c r="C251" s="40"/>
-      <c r="D251" s="39"/>
-      <c r="E251" s="39"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="39"/>
-      <c r="B252" s="39"/>
-      <c r="C252" s="40"/>
-      <c r="D252" s="39"/>
-      <c r="E252" s="39"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="39"/>
-      <c r="B253" s="39"/>
-      <c r="C253" s="40"/>
-      <c r="D253" s="39"/>
-      <c r="E253" s="39"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="39"/>
-      <c r="B254" s="39"/>
-      <c r="C254" s="40"/>
-      <c r="D254" s="39"/>
-      <c r="E254" s="39"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="39"/>
-      <c r="B255" s="39"/>
-      <c r="C255" s="40"/>
-      <c r="D255" s="39"/>
-      <c r="E255" s="39"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="39"/>
-      <c r="B256" s="39"/>
-      <c r="C256" s="40"/>
-      <c r="D256" s="39"/>
-      <c r="E256" s="39"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="39"/>
-      <c r="B257" s="39"/>
-      <c r="C257" s="40"/>
-      <c r="D257" s="39"/>
-      <c r="E257" s="39"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="39"/>
-      <c r="B258" s="39"/>
-      <c r="C258" s="40"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="39"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="39"/>
-      <c r="B259" s="39"/>
-      <c r="C259" s="40"/>
-      <c r="D259" s="39"/>
-      <c r="E259" s="39"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="39"/>
-      <c r="B260" s="39"/>
-      <c r="C260" s="40"/>
-      <c r="D260" s="39"/>
-      <c r="E260" s="39"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="39"/>
-      <c r="B261" s="39"/>
-      <c r="C261" s="40"/>
-      <c r="D261" s="39"/>
-      <c r="E261" s="39"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="39"/>
-      <c r="B262" s="39"/>
-      <c r="C262" s="40"/>
-      <c r="D262" s="39"/>
-      <c r="E262" s="39"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="39"/>
-      <c r="B263" s="39"/>
-      <c r="C263" s="40"/>
-      <c r="D263" s="39"/>
-      <c r="E263" s="39"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="39"/>
-      <c r="B264" s="39"/>
-      <c r="C264" s="40"/>
-      <c r="D264" s="39"/>
-      <c r="E264" s="39"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="39"/>
-      <c r="B265" s="39"/>
-      <c r="C265" s="40"/>
-      <c r="D265" s="39"/>
-      <c r="E265" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="60">
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="B128:B130"/>
     <mergeCell ref="D128:E130"/>
@@ -8124,55 +8576,6 @@
     <mergeCell ref="A126:A127"/>
     <mergeCell ref="B126:B127"/>
     <mergeCell ref="D126:E127"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/python测试开发课程实战—商业实战课程规划V1.3.xlsx
+++ b/docs/python测试开发课程实战—商业实战课程规划V1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyPython\Lux\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{48E99175-16E7-435C-A5C6-9F11ADA253AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{617E25A4-AF31-407F-9C78-539818EA955C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1455" windowWidth="28200" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="性能" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1452,28 +1453,7 @@
       <t>ke</t>
     </rPh>
     <rPh sb="123" eb="124">
-      <t>zhang wo</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ping tai</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>da jian</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>ren yuan</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>chan chu</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>cheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
+      <t>zhang woping taida jiance shiren yuanchan chukai facheng guoweizi dong huace shijiqian hou duanfen lizuo chugong xiankezhang wodengkai fakuang jiakezhang wochi xu ji chenggong jushu juqu dongdeli nianyucao zuodengduo geji shu dian</t>
     </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2539,6 +2519,174 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2563,15 +2711,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2599,161 +2738,68 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2774,72 +2820,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3981,7 +3961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
@@ -3997,139 +3977,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="172"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="120"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="176"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="130" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -4149,10 +4129,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148">
+      <c r="A17" s="168">
         <v>1</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="151" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4166,8 +4146,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
@@ -4179,8 +4159,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -4192,8 +4172,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
@@ -4205,10 +4185,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133">
+      <c r="A21" s="150">
         <v>2</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="151" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -4222,8 +4202,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="13" t="s">
         <v>130</v>
       </c>
@@ -4235,8 +4215,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="13" t="s">
         <v>131</v>
       </c>
@@ -4248,10 +4228,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150">
+      <c r="A24" s="141">
         <v>3</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="146" t="s">
         <v>132</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -4265,8 +4245,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="13" t="s">
         <v>132</v>
       </c>
@@ -4278,10 +4258,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="158">
+      <c r="A26" s="145">
         <v>4</v>
       </c>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="149" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="98" t="s">
@@ -4295,8 +4275,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="98" t="s">
         <v>136</v>
       </c>
@@ -4308,8 +4288,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="158"/>
-      <c r="B28" s="157"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="149"/>
       <c r="C28" s="90" t="s">
         <v>137</v>
       </c>
@@ -4321,8 +4301,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="92" t="s">
         <v>143</v>
       </c>
@@ -4334,8 +4314,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="158"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="149"/>
       <c r="C30" s="92" t="s">
         <v>138</v>
       </c>
@@ -4347,10 +4327,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="154">
+      <c r="A31" s="148">
         <v>5</v>
       </c>
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="124" t="s">
         <v>139</v>
       </c>
       <c r="C31" s="94" t="s">
@@ -4364,8 +4344,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="154"/>
-      <c r="B32" s="156"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="143"/>
       <c r="C32" s="110" t="s">
         <v>141</v>
       </c>
@@ -4377,8 +4357,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="154"/>
-      <c r="B33" s="156"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="143"/>
       <c r="C33" s="110" t="s">
         <v>142</v>
       </c>
@@ -4390,10 +4370,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162">
+      <c r="A34" s="136">
         <v>6</v>
       </c>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="137" t="s">
         <v>144</v>
       </c>
       <c r="C34" s="109" t="s">
@@ -4407,8 +4387,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="166"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="138"/>
       <c r="C35" s="88" t="s">
         <v>146</v>
       </c>
@@ -4420,8 +4400,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="163"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="90" t="s">
         <v>147</v>
       </c>
@@ -4433,8 +4413,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="164"/>
-      <c r="B37" s="166"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="102" t="s">
         <v>148</v>
       </c>
@@ -4446,10 +4426,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="150">
+      <c r="A38" s="141">
         <v>7</v>
       </c>
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="139" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -4463,8 +4443,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="151"/>
-      <c r="B39" s="167"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="23" t="s">
         <v>151</v>
       </c>
@@ -4476,8 +4456,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="168"/>
-      <c r="B40" s="167"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="23" t="s">
         <v>152</v>
       </c>
@@ -4489,10 +4469,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="151">
+      <c r="A41" s="140">
         <v>8</v>
       </c>
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="139" t="s">
         <v>153</v>
       </c>
       <c r="C41" s="106" t="s">
@@ -4506,8 +4486,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="151"/>
-      <c r="B42" s="167"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="24" t="s">
         <v>155</v>
       </c>
@@ -4519,8 +4499,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="151"/>
-      <c r="B43" s="167"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="24" t="s">
         <v>156</v>
       </c>
@@ -4532,10 +4512,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="158">
+      <c r="A44" s="145">
         <v>9</v>
       </c>
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="124" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="88" t="s">
@@ -4549,8 +4529,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="158"/>
-      <c r="B45" s="156"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="143"/>
       <c r="C45" s="88" t="s">
         <v>159</v>
       </c>
@@ -4562,8 +4542,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="158"/>
-      <c r="B46" s="156"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="143"/>
       <c r="C46" s="88" t="s">
         <v>160</v>
       </c>
@@ -4575,8 +4555,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="158"/>
-      <c r="B47" s="169"/>
+      <c r="A47" s="145"/>
+      <c r="B47" s="144"/>
       <c r="C47" s="98" t="s">
         <v>161</v>
       </c>
@@ -4588,10 +4568,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="159">
+      <c r="A48" s="117">
         <v>10</v>
       </c>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="134" t="s">
         <v>162</v>
       </c>
       <c r="C48" s="80" t="s">
@@ -4605,8 +4585,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="159"/>
-      <c r="B49" s="161"/>
+      <c r="A49" s="117"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="80" t="s">
         <v>164</v>
       </c>
@@ -4618,8 +4598,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="159"/>
-      <c r="B50" s="161"/>
+      <c r="A50" s="117"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="80" t="s">
         <v>165</v>
       </c>
@@ -4631,10 +4611,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="164">
+      <c r="A51" s="116">
         <v>11</v>
       </c>
-      <c r="B51" s="171" t="s">
+      <c r="B51" s="114" t="s">
         <v>166</v>
       </c>
       <c r="C51" s="80" t="s">
@@ -4648,8 +4628,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="159"/>
-      <c r="B52" s="172"/>
+      <c r="A52" s="117"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="80" t="s">
         <v>168</v>
       </c>
@@ -4661,8 +4641,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="159"/>
-      <c r="B53" s="172"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="80" t="s">
         <v>169</v>
       </c>
@@ -4674,8 +4654,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="159"/>
-      <c r="B54" s="172"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="80" t="s">
         <v>170</v>
       </c>
@@ -4687,10 +4667,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="163">
+      <c r="A55" s="131">
         <v>12</v>
       </c>
-      <c r="B55" s="180" t="s">
+      <c r="B55" s="128" t="s">
         <v>171</v>
       </c>
       <c r="C55" s="98" t="s">
@@ -4704,8 +4684,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="183"/>
-      <c r="B56" s="181"/>
+      <c r="A56" s="132"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="88" t="s">
         <v>173</v>
       </c>
@@ -4717,8 +4697,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="184"/>
-      <c r="B57" s="182"/>
+      <c r="A57" s="133"/>
+      <c r="B57" s="130"/>
       <c r="C57" s="88" t="s">
         <v>174</v>
       </c>
@@ -4747,10 +4727,10 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="174">
+      <c r="A59" s="121">
         <v>14</v>
       </c>
-      <c r="B59" s="176" t="s">
+      <c r="B59" s="123" t="s">
         <v>178</v>
       </c>
       <c r="C59" s="80" t="s">
@@ -4764,8 +4744,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="175"/>
-      <c r="B60" s="155"/>
+      <c r="A60" s="122"/>
+      <c r="B60" s="124"/>
       <c r="C60" s="9" t="s">
         <v>177</v>
       </c>
@@ -4777,12 +4757,12 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="178"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="213" t="s">
+      <c r="B61" s="126"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="113" t="s">
         <v>215</v>
       </c>
       <c r="E61" s="51"/>
@@ -4816,77 +4796,77 @@
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="149"/>
-      <c r="B66" s="173"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="120"/>
       <c r="C66" s="37"/>
       <c r="D66" s="29"/>
       <c r="E66" s="33"/>
     </row>
     <row r="67" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="149"/>
-      <c r="B67" s="173"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="120"/>
       <c r="C67" s="37"/>
       <c r="D67" s="29"/>
       <c r="E67" s="33"/>
     </row>
     <row r="68" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="149"/>
-      <c r="B68" s="173"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="120"/>
       <c r="C68" s="37"/>
       <c r="D68" s="29"/>
       <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="149"/>
-      <c r="B69" s="173"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="120"/>
       <c r="C69" s="37"/>
       <c r="D69" s="29"/>
       <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="149"/>
-      <c r="B70" s="173"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="120"/>
       <c r="C70" s="37"/>
       <c r="D70" s="29"/>
       <c r="E70" s="33"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="149"/>
-      <c r="B71" s="173"/>
+      <c r="A71" s="118"/>
+      <c r="B71" s="120"/>
       <c r="C71" s="37"/>
       <c r="D71" s="29"/>
       <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="149"/>
-      <c r="B72" s="173"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="120"/>
       <c r="C72" s="37"/>
       <c r="D72" s="29"/>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="149"/>
-      <c r="B73" s="173"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="120"/>
       <c r="C73" s="37"/>
       <c r="D73" s="29"/>
       <c r="E73" s="33"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="149"/>
-      <c r="B74" s="173"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="120"/>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
       <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="149"/>
+      <c r="A75" s="118"/>
       <c r="B75" s="39"/>
       <c r="C75" s="40"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
+      <c r="A76" s="118"/>
       <c r="B76" s="39"/>
       <c r="C76" s="40"/>
       <c r="D76" s="39"/>
@@ -5166,81 +5146,81 @@
       <c r="E115" s="29"/>
     </row>
     <row r="116" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="149"/>
-      <c r="B116" s="170"/>
+      <c r="A116" s="118"/>
+      <c r="B116" s="119"/>
       <c r="C116" s="37"/>
-      <c r="D116" s="149"/>
-      <c r="E116" s="149"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="118"/>
     </row>
     <row r="117" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="149"/>
-      <c r="B117" s="149"/>
+      <c r="A117" s="118"/>
+      <c r="B117" s="118"/>
       <c r="C117" s="37"/>
-      <c r="D117" s="149"/>
-      <c r="E117" s="149"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
     </row>
     <row r="118" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="149"/>
-      <c r="B118" s="170"/>
+      <c r="A118" s="118"/>
+      <c r="B118" s="119"/>
       <c r="C118" s="37"/>
-      <c r="D118" s="149"/>
-      <c r="E118" s="149"/>
+      <c r="D118" s="118"/>
+      <c r="E118" s="118"/>
     </row>
     <row r="119" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="149"/>
-      <c r="B119" s="149"/>
+      <c r="A119" s="118"/>
+      <c r="B119" s="118"/>
       <c r="C119" s="37"/>
-      <c r="D119" s="149"/>
-      <c r="E119" s="149"/>
+      <c r="D119" s="118"/>
+      <c r="E119" s="118"/>
     </row>
     <row r="120" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="149"/>
-      <c r="B120" s="149"/>
+      <c r="A120" s="118"/>
+      <c r="B120" s="118"/>
       <c r="C120" s="37"/>
-      <c r="D120" s="149"/>
-      <c r="E120" s="149"/>
+      <c r="D120" s="118"/>
+      <c r="E120" s="118"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="149"/>
-      <c r="B121" s="170"/>
+      <c r="A121" s="118"/>
+      <c r="B121" s="119"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="149"/>
-      <c r="E121" s="149"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="118"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="149"/>
-      <c r="B122" s="149"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="149"/>
-      <c r="E122" s="149"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="149"/>
-      <c r="B123" s="170"/>
+      <c r="A123" s="118"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="37"/>
-      <c r="D123" s="149"/>
-      <c r="E123" s="149"/>
+      <c r="D123" s="118"/>
+      <c r="E123" s="118"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="149"/>
-      <c r="B124" s="149"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="118"/>
       <c r="C124" s="37"/>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="149"/>
-      <c r="B125" s="149"/>
+      <c r="A125" s="118"/>
+      <c r="B125" s="118"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="149"/>
-      <c r="E125" s="149"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="29"/>
       <c r="B126" s="43"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="149"/>
-      <c r="E126" s="149"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="46"/>
@@ -6182,45 +6162,12 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D116:E117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="D123:E125"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:E7"/>
@@ -6234,12 +6181,45 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D116:E117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="D123:E125"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A55:A57"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6267,139 +6247,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="172"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="120"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="176"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="130" t="s">
+      <c r="B5" s="180"/>
+      <c r="C5" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
     </row>
     <row r="6" spans="1:5" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
     </row>
     <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
     </row>
     <row r="8" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
     </row>
     <row r="9" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
     </row>
     <row r="10" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
     </row>
     <row r="11" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
     </row>
     <row r="12" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
     </row>
     <row r="13" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:5" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
     </row>
     <row r="15" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
@@ -6419,10 +6399,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="148">
+      <c r="A17" s="168">
         <v>1</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="151" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -6436,8 +6416,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
@@ -6449,8 +6429,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="134"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
@@ -6462,8 +6442,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
-      <c r="B20" s="134"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="13" t="s">
         <v>21</v>
       </c>
@@ -6475,10 +6455,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="133">
+      <c r="A21" s="150">
         <v>2</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="151" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -6492,8 +6472,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="151"/>
       <c r="C22" s="13" t="s">
         <v>24</v>
       </c>
@@ -6505,8 +6485,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="150"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="13" t="s">
         <v>25</v>
       </c>
@@ -6518,10 +6498,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="150">
+      <c r="A24" s="141">
         <v>3</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="146" t="s">
         <v>119</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -6535,8 +6515,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="153"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="13" t="s">
         <v>55</v>
       </c>
@@ -6548,8 +6528,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="153"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="30" t="s">
         <v>56</v>
       </c>
@@ -6561,8 +6541,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="168"/>
-      <c r="B27" s="209"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
       </c>
@@ -6574,10 +6554,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="210">
+      <c r="A28" s="187">
         <v>4</v>
       </c>
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="188" t="s">
         <v>120</v>
       </c>
       <c r="C28" s="62" t="s">
@@ -6591,8 +6571,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="210"/>
-      <c r="B29" s="211"/>
+      <c r="A29" s="187"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="62" t="s">
         <v>15</v>
       </c>
@@ -6604,8 +6584,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="210"/>
-      <c r="B30" s="211"/>
+      <c r="A30" s="187"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="62" t="s">
         <v>58</v>
       </c>
@@ -6617,10 +6597,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="212">
+      <c r="A31" s="190">
         <v>5</v>
       </c>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="188" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="64" t="s">
@@ -6634,8 +6614,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="212"/>
-      <c r="B32" s="211"/>
+      <c r="A32" s="190"/>
+      <c r="B32" s="189"/>
       <c r="C32" s="66" t="s">
         <v>28</v>
       </c>
@@ -6647,8 +6627,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="212"/>
-      <c r="B33" s="211"/>
+      <c r="A33" s="190"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="64" t="s">
         <v>46</v>
       </c>
@@ -6660,10 +6640,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="133">
+      <c r="A34" s="150">
         <v>6</v>
       </c>
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="192" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="53" t="s">
@@ -6677,8 +6657,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="133"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="150"/>
+      <c r="B35" s="193"/>
       <c r="C35" s="9" t="s">
         <v>64</v>
       </c>
@@ -6690,8 +6670,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="201"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="191"/>
+      <c r="B36" s="193"/>
       <c r="C36" s="19" t="s">
         <v>65</v>
       </c>
@@ -6703,8 +6683,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="150"/>
-      <c r="B37" s="203"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="193"/>
       <c r="C37" s="22" t="s">
         <v>66</v>
       </c>
@@ -6716,8 +6696,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="150"/>
-      <c r="B38" s="204"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="194"/>
       <c r="C38" s="23" t="s">
         <v>67</v>
       </c>
@@ -6729,10 +6709,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="205">
+      <c r="A39" s="195">
         <v>7</v>
       </c>
-      <c r="B39" s="167" t="s">
+      <c r="B39" s="139" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -6746,8 +6726,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="205"/>
-      <c r="B40" s="167"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="23" t="s">
         <v>62</v>
       </c>
@@ -6759,10 +6739,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="151">
+      <c r="A41" s="140">
         <v>8</v>
       </c>
-      <c r="B41" s="206" t="s">
+      <c r="B41" s="196" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -6776,8 +6756,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="151"/>
-      <c r="B42" s="207"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="197"/>
       <c r="C42" s="4" t="s">
         <v>29</v>
       </c>
@@ -6789,8 +6769,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="151"/>
-      <c r="B43" s="208"/>
+      <c r="A43" s="140"/>
+      <c r="B43" s="198"/>
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
@@ -6802,10 +6782,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="193">
+      <c r="A44" s="199">
         <v>9</v>
       </c>
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="200" t="s">
         <v>124</v>
       </c>
       <c r="C44" s="72" t="s">
@@ -6819,8 +6799,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="193"/>
-      <c r="B45" s="194"/>
+      <c r="A45" s="199"/>
+      <c r="B45" s="200"/>
       <c r="C45" s="72" t="s">
         <v>31</v>
       </c>
@@ -6832,8 +6812,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="193"/>
-      <c r="B46" s="194"/>
+      <c r="A46" s="199"/>
+      <c r="B46" s="200"/>
       <c r="C46" s="72" t="s">
         <v>32</v>
       </c>
@@ -6845,8 +6825,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="151"/>
-      <c r="B47" s="195" t="s">
+      <c r="A47" s="140"/>
+      <c r="B47" s="201" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -6860,8 +6840,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="151"/>
-      <c r="B48" s="196"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="202"/>
       <c r="C48" s="4" t="s">
         <v>34</v>
       </c>
@@ -6873,8 +6853,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="151"/>
-      <c r="B49" s="196"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="202"/>
       <c r="C49" s="4" t="s">
         <v>121</v>
       </c>
@@ -6886,8 +6866,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="151"/>
-      <c r="B50" s="196"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="202"/>
       <c r="C50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6899,10 +6879,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="197">
+      <c r="A51" s="203">
         <v>11</v>
       </c>
-      <c r="B51" s="199" t="s">
+      <c r="B51" s="205" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="62" t="s">
@@ -6916,8 +6896,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="198"/>
-      <c r="B52" s="200"/>
+      <c r="A52" s="204"/>
+      <c r="B52" s="206"/>
       <c r="C52" s="62" t="s">
         <v>49</v>
       </c>
@@ -6929,8 +6909,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="198"/>
-      <c r="B53" s="200"/>
+      <c r="A53" s="204"/>
+      <c r="B53" s="206"/>
       <c r="C53" s="62" t="s">
         <v>48</v>
       </c>
@@ -6942,8 +6922,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="198"/>
-      <c r="B54" s="200"/>
+      <c r="A54" s="204"/>
+      <c r="B54" s="206"/>
       <c r="C54" s="62" t="s">
         <v>37</v>
       </c>
@@ -6972,10 +6952,10 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="133">
+      <c r="A56" s="150">
         <v>13</v>
       </c>
-      <c r="B56" s="185" t="s">
+      <c r="B56" s="207" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -6989,8 +6969,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="133"/>
-      <c r="B57" s="185"/>
+      <c r="A57" s="150"/>
+      <c r="B57" s="207"/>
       <c r="C57" s="9" t="s">
         <v>38</v>
       </c>
@@ -7002,10 +6982,10 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="186">
+      <c r="A58" s="208">
         <v>14</v>
       </c>
-      <c r="B58" s="185" t="s">
+      <c r="B58" s="207" t="s">
         <v>27</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -7019,8 +6999,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="187"/>
-      <c r="B59" s="185"/>
+      <c r="A59" s="209"/>
+      <c r="B59" s="207"/>
       <c r="C59" s="9" t="s">
         <v>39</v>
       </c>
@@ -7032,8 +7012,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="188"/>
-      <c r="B60" s="185"/>
+      <c r="A60" s="210"/>
+      <c r="B60" s="207"/>
       <c r="C60" s="9" t="s">
         <v>40</v>
       </c>
@@ -7045,10 +7025,10 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="189">
+      <c r="A61" s="211">
         <v>15</v>
       </c>
-      <c r="B61" s="191" t="s">
+      <c r="B61" s="213" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="62" t="s">
@@ -7062,8 +7042,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="190"/>
-      <c r="B62" s="191"/>
+      <c r="A62" s="212"/>
+      <c r="B62" s="213"/>
       <c r="C62" s="62" t="s">
         <v>42</v>
       </c>
@@ -7075,8 +7055,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="190"/>
-      <c r="B63" s="192"/>
+      <c r="A63" s="212"/>
+      <c r="B63" s="188"/>
       <c r="C63" s="62" t="s">
         <v>43</v>
       </c>
@@ -7088,8 +7068,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="190"/>
-      <c r="B64" s="192"/>
+      <c r="A64" s="212"/>
+      <c r="B64" s="188"/>
       <c r="C64" s="78" t="s">
         <v>44</v>
       </c>
@@ -7111,11 +7091,11 @@
       <c r="E65" s="35"/>
     </row>
     <row r="66" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="177" t="s">
+      <c r="A66" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="178"/>
-      <c r="C66" s="179"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="127"/>
       <c r="D66" s="50" t="s">
         <v>122</v>
       </c>
@@ -7150,77 +7130,77 @@
       <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="149"/>
-      <c r="B71" s="173"/>
+      <c r="A71" s="118"/>
+      <c r="B71" s="120"/>
       <c r="C71" s="37"/>
       <c r="D71" s="59"/>
       <c r="E71" s="33"/>
     </row>
     <row r="72" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="149"/>
-      <c r="B72" s="173"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="120"/>
       <c r="C72" s="37"/>
       <c r="D72" s="59"/>
       <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="149"/>
-      <c r="B73" s="173"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="120"/>
       <c r="C73" s="37"/>
       <c r="D73" s="59"/>
       <c r="E73" s="34"/>
     </row>
     <row r="74" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="149"/>
-      <c r="B74" s="173"/>
+      <c r="A74" s="118"/>
+      <c r="B74" s="120"/>
       <c r="C74" s="37"/>
       <c r="D74" s="59"/>
       <c r="E74" s="33"/>
     </row>
     <row r="75" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="149"/>
-      <c r="B75" s="173"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="120"/>
       <c r="C75" s="37"/>
       <c r="D75" s="59"/>
       <c r="E75" s="33"/>
     </row>
     <row r="76" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149"/>
-      <c r="B76" s="173"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="120"/>
       <c r="C76" s="37"/>
       <c r="D76" s="59"/>
       <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="149"/>
-      <c r="B77" s="173"/>
+      <c r="A77" s="118"/>
+      <c r="B77" s="120"/>
       <c r="C77" s="37"/>
       <c r="D77" s="59"/>
       <c r="E77" s="33"/>
     </row>
     <row r="78" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="149"/>
-      <c r="B78" s="173"/>
+      <c r="A78" s="118"/>
+      <c r="B78" s="120"/>
       <c r="C78" s="37"/>
       <c r="D78" s="59"/>
       <c r="E78" s="33"/>
     </row>
     <row r="79" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="149"/>
-      <c r="B79" s="173"/>
+      <c r="A79" s="118"/>
+      <c r="B79" s="120"/>
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
       <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="149"/>
+      <c r="A80" s="118"/>
       <c r="B80" s="39"/>
       <c r="C80" s="40"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="149"/>
+      <c r="A81" s="118"/>
       <c r="B81" s="39"/>
       <c r="C81" s="40"/>
       <c r="D81" s="39"/>
@@ -7500,81 +7480,81 @@
       <c r="E120" s="59"/>
     </row>
     <row r="121" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="149"/>
-      <c r="B121" s="170"/>
+      <c r="A121" s="118"/>
+      <c r="B121" s="119"/>
       <c r="C121" s="37"/>
-      <c r="D121" s="149"/>
-      <c r="E121" s="149"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="118"/>
     </row>
     <row r="122" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="149"/>
-      <c r="B122" s="149"/>
+      <c r="A122" s="118"/>
+      <c r="B122" s="118"/>
       <c r="C122" s="37"/>
-      <c r="D122" s="149"/>
-      <c r="E122" s="149"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
     </row>
     <row r="123" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="149"/>
-      <c r="B123" s="170"/>
+      <c r="A123" s="118"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="37"/>
-      <c r="D123" s="149"/>
-      <c r="E123" s="149"/>
+      <c r="D123" s="118"/>
+      <c r="E123" s="118"/>
     </row>
     <row r="124" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="149"/>
-      <c r="B124" s="149"/>
+      <c r="A124" s="118"/>
+      <c r="B124" s="118"/>
       <c r="C124" s="37"/>
-      <c r="D124" s="149"/>
-      <c r="E124" s="149"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
     </row>
     <row r="125" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="149"/>
-      <c r="B125" s="149"/>
+      <c r="A125" s="118"/>
+      <c r="B125" s="118"/>
       <c r="C125" s="37"/>
-      <c r="D125" s="149"/>
-      <c r="E125" s="149"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
     </row>
     <row r="126" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="149"/>
-      <c r="B126" s="170"/>
+      <c r="A126" s="118"/>
+      <c r="B126" s="119"/>
       <c r="C126" s="37"/>
-      <c r="D126" s="149"/>
-      <c r="E126" s="149"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
     </row>
     <row r="127" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="149"/>
-      <c r="B127" s="149"/>
+      <c r="A127" s="118"/>
+      <c r="B127" s="118"/>
       <c r="C127" s="37"/>
-      <c r="D127" s="149"/>
-      <c r="E127" s="149"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="118"/>
     </row>
     <row r="128" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="149"/>
-      <c r="B128" s="170"/>
+      <c r="A128" s="118"/>
+      <c r="B128" s="119"/>
       <c r="C128" s="37"/>
-      <c r="D128" s="149"/>
-      <c r="E128" s="149"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="118"/>
     </row>
     <row r="129" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="149"/>
-      <c r="B129" s="149"/>
+      <c r="A129" s="118"/>
+      <c r="B129" s="118"/>
       <c r="C129" s="37"/>
-      <c r="D129" s="149"/>
-      <c r="E129" s="149"/>
+      <c r="D129" s="118"/>
+      <c r="E129" s="118"/>
     </row>
     <row r="130" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="149"/>
-      <c r="B130" s="149"/>
+      <c r="A130" s="118"/>
+      <c r="B130" s="118"/>
       <c r="C130" s="37"/>
-      <c r="D130" s="149"/>
-      <c r="E130" s="149"/>
+      <c r="D130" s="118"/>
+      <c r="E130" s="118"/>
     </row>
     <row r="131" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="59"/>
       <c r="B131" s="61"/>
       <c r="C131" s="37"/>
-      <c r="D131" s="149"/>
-      <c r="E131" s="149"/>
+      <c r="D131" s="118"/>
+      <c r="E131" s="118"/>
     </row>
     <row r="132" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="46"/>
@@ -8516,12 +8496,47 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="D128:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D121:E122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="D123:E125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="D126:E127"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A7:E7"/>
@@ -8535,47 +8550,12 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="D128:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D121:E122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="D123:E125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="D126:E127"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:E6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
